--- a/VR Karting/Results/9580.xlsx
+++ b/VR Karting/Results/9580.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="4340" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="4340" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,8 +15,12 @@
     <sheet name="Session 3" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Session 4" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Mini 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Word Accuracies" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Contrast Accuracies" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1958,7 +1962,4480 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:D144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.7991028</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.9420929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9622803</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.2062</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.063828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.39769</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.558578</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.275673</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.032974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.475113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.043625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.162582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.132431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.805252</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.190475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.154144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.760788</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.538483</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.179352</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.197983</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.156357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.159103</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.9951019</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.8734741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.157822</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.8870239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.7170105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.8226624</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.6973877000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.7956238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.9961853000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.017212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.9913635</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.7723389000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.05838</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.210846</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.635345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.342194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.9752807999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.864807</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.7792969</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.238922</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.7497559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.111847</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.013275</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.177368</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.6431274</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.9988098</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.9120178</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.9772949</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.14502</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.7150269</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.712463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.6386719</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.260956</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.849915</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1.082254</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.364838</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.266277</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.137192</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.136017</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.216324</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.076355</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.054428</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.101334</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.9977112</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.05394</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.068451</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.9512634</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.074471</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.9559326</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.078461</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.797485</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>1.114319</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.210342</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.51355</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.128662</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.177292</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.072205</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.124191</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.8007813</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.781265</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.395401</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.130646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.456818</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.8222197999999999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.273163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.662735</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.567017</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.907196</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.15683</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.9755554</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.440552</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.8786011</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.028351</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.837769</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.7916260000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6585083</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.523682</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.670563</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.1956482</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.8120117</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.6017456</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.7523803999999999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.2107239</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.961731</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8038025</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.707581</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.6716003</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7041321</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.5690613</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.6455994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,1068 +6469,1241 @@
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.5</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Boole</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.5</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>but</t>
         </is>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.5</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.5</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>cheap</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" t="n">
         <v>0.5</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" t="n">
         <v>0.5</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>cooed</t>
         </is>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>cot</t>
         </is>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" t="n">
         <v>0.5</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.5</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>each</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" t="n">
         <v>0.5</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" t="n">
         <v>0.5</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
         <v>0.5</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>filled</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" t="n">
         <v>0.5</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>fool</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>fund</t>
         </is>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" t="n">
         <v>0.5</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" t="n">
         <v>0.5</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" t="n">
         <v>0.5</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.5</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>grin</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.5</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" t="n">
         <v>0.5</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>hut</t>
         </is>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
         <v>0.5</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>itch</t>
         </is>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Ken</t>
         </is>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
         <v>0.5</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>least</t>
         </is>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" t="n">
         <v>0.5</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" t="n">
         <v>0.5</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" t="n">
         <v>0.5</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" t="n">
         <v>0.5</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" t="n">
         <v>0.5</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.5</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Luke</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>man</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>men</t>
         </is>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" t="n">
         <v>0.5</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" t="n">
         <v>0.5</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
         <v>0.5</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>pat</t>
         </is>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.5</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" t="n">
         <v>0.5</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>pet</t>
         </is>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
         <v>0.5</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.5</v>
       </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>pool</t>
         </is>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>pop</t>
         </is>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
         <v>0.5</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" t="n">
         <v>0.5</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.5</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>pup</t>
         </is>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
         <v>0.5</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>reach</t>
         </is>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.5</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>rich</t>
         </is>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.5</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" t="n">
         <v>0.5</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" t="n">
         <v>0.5</v>
       </c>
-      <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.5</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t>shooed</t>
         </is>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>0.5</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" t="n">
         <v>0.5</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" t="n">
         <v>0.5</v>
       </c>
+      <c r="F49" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t>should</t>
         </is>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
         <v>0.5</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t>sob</t>
         </is>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>sub</t>
         </is>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.5</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t>tan</t>
         </is>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" t="n">
         <v>0.5</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t>ten</t>
         </is>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t>wooed</t>
         </is>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.5</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" t="n">
         <v>0.5</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3062,7 +7712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3074,109 +7724,301 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Session 2</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Session 3</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Session 4</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>ɛ vs. æ</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
         <v>0.6428571428571429</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="0" t="n">
         <v>0.8214285714285714</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>ɪ vs. iː</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="0" t="n">
         <v>0.8928571428571429</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>ʊ vs. uː</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="0" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="0" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>ʌ vs. ɑ</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="0" t="n">
         <v>0.6785714285714286</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="0" t="n">
         <v>0.8571428571428571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -10093,7 +14935,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/VR Karting/Results/9580.xlsx
+++ b/VR Karting/Results/9580.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="940" yWindow="4340" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4620" yWindow="760" windowWidth="18600" windowHeight="17440" tabRatio="600" firstSheet="7" activeTab="15" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,9 +18,13 @@
     <sheet name="MID" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Session 5" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1965,7 +1969,7 @@
   <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6338,7 +6342,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -6435,7 +6439,3155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9317169</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.71212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.067734</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.247139</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1.088173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.549286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.410049</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.7957993</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.4420166</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.926651</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.821747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8675079</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.170609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.731308</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.8081512</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.391891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.7058868</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.297501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.9103241</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.5921783</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.11969</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.327957</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.394302</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.6191254</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.8623199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.795807</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.338348</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.7822266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.052673</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.188721</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.577026</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.950195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.298615</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.026154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.171082</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.830688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.921722</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.94928</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.846252</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.442841</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.6543579</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.039978</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.078522</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.7743225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.8783569</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.398254</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.957611</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.8580017</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.6899719</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.8616333</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>2.000366</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.7100525</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.661377</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.7105103</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.45401</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1.233215</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.239344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.209181</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.053299</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.07333</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.439587</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.178772</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.139305</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.752411</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.07029</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.9961548</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.769836</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.303337</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.8011398</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.898941</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.736671</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.656479</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.922226</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.9485931</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.58812</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.084976</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.8929138</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.088669</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.62384</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.215805</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>2.261581</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.809433</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.03653</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.30455</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.8825836</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.6746826</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.8937225</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8988342</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.040573</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.207886</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.515076</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.7993469</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.8353577</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.42746</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.6622314</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.9848328</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.262848</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.6022034000000001</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.7543029999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.6780701</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.8412476</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.9813538000000001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8433838</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.508942</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.7323914</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.000519</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.6009521</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.7979126</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.7874146</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.126892</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.7223816</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.664917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.9095764</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.41457</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.417053</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.8787079</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8024139</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.467934</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.6053771999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.7209015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.7503967</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.841095</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.802765</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.9283905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.5966797</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.149338</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.9902344</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.8014832</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.6443481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.6468658</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.360199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.351105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.7132263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.04837</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.31691</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.432373</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.6851196000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.2471008</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.9466095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5984344</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.4309387</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.8468018</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.220673</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.7992553999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.3721924</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5740356</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.4888611</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.744873</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.4240112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.4215088</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5162659000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8378906</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.7894592</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.493866</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.4937134</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.4799194</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.5740662</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.4389648</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.4995422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.4049377</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.473999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.2622375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5087585</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5517883</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.8078918</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.595245</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.7357483</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.2401733</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.25922</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.5662689</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.264179</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.7666664</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.827221</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.6261063</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.9097748</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.7211914</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.024406</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.5299988</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7108078</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.594383</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.5551604999999999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.513855</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.4435806</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.4525452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.4725037</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.1179504</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.4483643</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.114883</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.8933411</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.5733948</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.4440002</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.064178</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.8152313</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.4772644</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.300522</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.6948853</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.27388</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.522842</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.7261353</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.6173096</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.6827698</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.913269</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.9962463</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.8026428</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.084503</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.161591</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.3051147</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.3482361</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.134094</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.9259338</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.8228149</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.6642761</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.3532715</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.3745117</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.131805</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.5481873</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.2894287</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.529541</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.651825</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.1951294</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.1564941</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.017578</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.6971436</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.2292175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,1236 +9626,1582 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="0" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="0" t="inlineStr">
         <is>
           <t>bet</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="0" t="inlineStr">
         <is>
           <t>Boole</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>bot</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>bull</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>but</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>can</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="0" t="inlineStr">
         <is>
           <t>cheap</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="0" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>cooed</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="0" t="inlineStr">
         <is>
           <t>cot</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="0" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="0" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="0" t="inlineStr">
         <is>
           <t>each</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="0" t="inlineStr">
         <is>
           <t>field</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>filled</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="0" t="inlineStr">
         <is>
           <t>fool</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="0" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="0" t="inlineStr">
         <is>
           <t>fund</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="0" t="inlineStr">
         <is>
           <t>grin</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>hut</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="0" t="inlineStr">
         <is>
           <t>itch</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>Ken</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>least</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="0" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="0" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="0" t="inlineStr">
         <is>
           <t>Luke</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="0" t="inlineStr">
         <is>
           <t>man</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="0" t="inlineStr">
         <is>
           <t>men</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="0" t="inlineStr">
         <is>
           <t>met</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="0" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="0" t="inlineStr">
         <is>
           <t>nut</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="0" t="inlineStr">
         <is>
           <t>pat</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="0" t="inlineStr">
         <is>
           <t>pet</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="0" t="inlineStr">
         <is>
           <t>pool</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>pop</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="0" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="0" t="inlineStr">
         <is>
           <t>pup</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>reach</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="0" t="inlineStr">
         <is>
           <t>rich</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="0" t="inlineStr">
         <is>
           <t>sat</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="0" t="inlineStr">
         <is>
           <t>scene</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="0" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="0" t="inlineStr">
         <is>
           <t>shooed</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="0" t="inlineStr">
         <is>
           <t>should</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="0" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="0" t="inlineStr">
         <is>
           <t>sob</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="0" t="inlineStr">
         <is>
           <t>sub</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="0" t="inlineStr">
         <is>
           <t>tan</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="0" t="inlineStr">
         <is>
           <t>ten</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="0" t="inlineStr">
         <is>
           <t>wooed</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="0" t="inlineStr">
         <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,121 +11210,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Session 2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Session 3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Session 4</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ɛ vs. æ</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" t="n">
         <v>0.6428571428571429</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n">
         <v>0.8214285714285714</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" t="n">
         <v>0.75</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" t="n">
         <v>0.7857142857142857</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9285714285714286</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>ɪ vs. iː</t>
         </is>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" t="n">
         <v>0.6785714285714286</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" t="n">
         <v>0.75</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" t="n">
         <v>0.8928571428571429</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" t="n">
         <v>0.8214285714285714</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>ʊ vs. uː</t>
         </is>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" t="n">
         <v>0.5</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" t="n">
         <v>0.7857142857142857</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ʌ vs. ɑ</t>
         </is>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" t="n">
         <v>0.75</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" t="n">
         <v>0.6785714285714286</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" t="n">
         <v>0.8571428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -7834,7 +11383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7846,20 +11395,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>PRE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
@@ -9705,10 +13254,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9727,6 +13276,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -9742,6 +13296,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -9757,6 +13316,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -9772,6 +13336,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -9787,6 +13356,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -9802,6 +13376,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -9817,6 +13396,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -9832,6 +13416,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -9847,6 +13436,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -9862,6 +13456,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -9877,6 +13476,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -9892,6 +13496,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -9907,6 +13516,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -9922,6 +13536,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -9937,6 +13556,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -9952,6 +13576,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -9967,6 +13596,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -9982,6 +13616,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -9997,6 +13636,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -10012,6 +13656,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -10027,6 +13676,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -10042,6 +13696,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -10057,6 +13716,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -10072,6 +13736,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -10087,6 +13756,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -10102,6 +13776,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -10117,6 +13796,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -10132,6 +13816,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -10147,6 +13836,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -10162,6 +13856,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -10177,6 +13876,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -10192,6 +13896,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -10207,6 +13916,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -10222,6 +13936,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -10237,6 +13956,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -10252,6 +13976,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -10267,6 +13996,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -10282,6 +14016,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -10297,6 +14036,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -10312,6 +14056,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -10327,6 +14076,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -10342,6 +14096,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -10357,6 +14116,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -10372,6 +14136,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -10387,6 +14156,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -10402,6 +14176,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -10417,6 +14196,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -10432,6 +14216,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -10447,6 +14236,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -10462,6 +14256,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -10477,6 +14276,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -10492,6 +14296,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -10507,6 +14316,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -10522,6 +14336,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -10537,6 +14356,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -10552,6 +14376,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -10567,6 +14396,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
@@ -10582,6 +14416,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
@@ -10597,6 +14436,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
@@ -10612,6 +14456,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
@@ -10627,6 +14476,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
@@ -10642,6 +14496,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
@@ -10657,6 +14516,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
@@ -10672,6 +14536,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
@@ -10687,6 +14556,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
@@ -10702,6 +14576,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
@@ -10717,6 +14596,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
@@ -10732,6 +14616,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
@@ -10747,6 +14636,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
@@ -10762,6 +14656,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
@@ -10777,6 +14676,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
@@ -10792,6 +14696,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
@@ -10807,6 +14716,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
@@ -10822,6 +14736,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
@@ -10837,6 +14756,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
@@ -10852,6 +14776,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
@@ -10867,6 +14796,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
@@ -10882,6 +14816,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
@@ -10897,6 +14836,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
@@ -10912,6 +14856,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
@@ -10927,6 +14876,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
@@ -10942,6 +14896,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
@@ -10957,6 +14916,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
@@ -10972,6 +14936,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
@@ -10987,6 +14956,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
@@ -11002,6 +14976,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
@@ -11017,6 +14996,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
@@ -11032,6 +15016,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
@@ -11047,6 +15036,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
@@ -11062,6 +15056,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
@@ -11077,6 +15076,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
@@ -11092,6 +15096,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
@@ -11107,6 +15116,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
@@ -11122,6 +15136,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
@@ -11137,6 +15156,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
@@ -11152,6 +15176,11 @@
           <t>Clear</t>
         </is>
       </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
@@ -11167,6 +15196,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
@@ -11182,6 +15216,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
@@ -11197,6 +15236,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
@@ -11212,6 +15256,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
@@ -11227,6 +15276,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
@@ -11242,6 +15296,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
@@ -11257,6 +15316,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
@@ -11272,6 +15336,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
@@ -11287,6 +15356,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
@@ -11302,6 +15376,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
@@ -11317,6 +15396,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
@@ -11332,6 +15416,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
@@ -11347,6 +15436,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
@@ -11362,6 +15456,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
@@ -11377,6 +15476,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
@@ -11392,6 +15496,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
@@ -11407,6 +15516,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
@@ -11422,6 +15536,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
@@ -11437,6 +15556,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
@@ -11452,6 +15576,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
@@ -11467,6 +15596,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
@@ -11482,6 +15616,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
@@ -11497,6 +15636,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
@@ -11512,6 +15656,11 @@
           <t>PinkNoise</t>
         </is>
       </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
@@ -11527,6 +15676,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
@@ -11542,6 +15696,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="inlineStr">
@@ -11557,6 +15716,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="inlineStr">
@@ -11572,6 +15736,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="inlineStr">
@@ -11587,6 +15756,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="inlineStr">
@@ -11602,6 +15776,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="inlineStr">
@@ -11617,6 +15796,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="inlineStr">
@@ -11632,6 +15816,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="inlineStr">
@@ -11647,6 +15836,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="inlineStr">
@@ -11662,6 +15856,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="inlineStr">
@@ -11677,6 +15876,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="inlineStr">
@@ -11692,6 +15896,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="inlineStr">
@@ -11707,6 +15916,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="inlineStr">
@@ -11722,6 +15936,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="inlineStr">
@@ -11737,6 +15956,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="inlineStr">
@@ -11752,6 +15976,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="inlineStr">
@@ -11767,6 +15996,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="inlineStr">
@@ -11782,6 +16016,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="inlineStr">
@@ -11797,6 +16036,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="inlineStr">
@@ -11812,6 +16056,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="inlineStr">
@@ -11827,6 +16076,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="inlineStr">
@@ -11842,6 +16096,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="inlineStr">
@@ -11857,6 +16116,11 @@
           <t>SingleTalker</t>
         </is>
       </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="inlineStr">
@@ -11870,6 +16134,11 @@
       <c r="C144" s="0" t="inlineStr">
         <is>
           <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
         </is>
       </c>
     </row>

--- a/VR Karting/Results/9580.xlsx
+++ b/VR Karting/Results/9580.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4620" yWindow="760" windowWidth="18600" windowHeight="17440" tabRatio="600" firstSheet="7" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13420" yWindow="760" windowWidth="18600" windowHeight="17440" tabRatio="600" firstSheet="10" activeTab="18" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="POST" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9490,8 +9493,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9587,502 +9590,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.573116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>0.8250389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.5</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>1.146126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>2.270779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0</v>
+        <v>0.6946564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.5</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>0.9501572</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.5</v>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>0.5174179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>0.4804993</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.5</v>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>0.8935852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0.8258286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>1.581726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7381516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>1.062584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>0.8452454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.5</v>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>1.172333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>0.5349731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>0.7705994</v>
       </c>
     </row>
     <row r="18">
@@ -10091,138 +9825,63 @@
           <t>fond</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.5</v>
+        <v>0.5458679</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>2.104782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7449646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>1.780197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0.5</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>1.861542</v>
       </c>
     </row>
     <row r="23">
@@ -10231,982 +9890,1172 @@
           <t>grin</t>
         </is>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>0.8848572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>1.231308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>1.108475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>0.7888794</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>1.409286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7810821999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0.5</v>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>0.759613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.5</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>0.5</v>
+        <v>0.7834778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0.5</v>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>1.072449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>2.551666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>1.723358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0.5</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>1.283203</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
+        <v>1.717773</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>1.081909</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>1.184509</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.5</v>
+        <v>1.17981</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>0.9544983</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.5</v>
+        <v>1.077423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.5</v>
+        <v>1.031494</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.5</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>0.7539673</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
+        <v>0.7395325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>1</v>
+        <v>0.7749939</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>0.5</v>
+        <v>1.8638</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>1</v>
+        <v>0.7185974000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.5</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
+        <v>0.9851379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
+        <v>0.6888123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>1</v>
+        <v>0.8289185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
+        <v>0.6081238</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>1</v>
+        <v>0.7669678</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>1</v>
+        <v>2.352783</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0.5</v>
+        <v>1.945648</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>0.5</v>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
+        <v>1.012695</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0.5</v>
+        <v>0.5241089</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
+        <v>0.4914246</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.541107</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.187714</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>1.384071</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.9972763</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.046425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.071362</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.130417</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9881896999999999</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.009796</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.957054</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>1</v>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.297333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.9105453</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.323235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.8536911</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.23954</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.962234</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.6168976</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.7726135</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.893036</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.681061</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.5857239</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.355652</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>0.6338654</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.9150696</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.6769867000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.444962</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.100189</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1.421387</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.5106049</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.8517456</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.172256</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.107559</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.878265</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.524475</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.250153</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.8568726</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.4984131</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.032349</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.37674</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.6618042</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.5131226</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7442017</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.381378</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9407349</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.8786926</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>0.7583313</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.014313</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.968689</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.437378</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.772522</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.975708</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.266968</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.4889526</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.7167053</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.9642334</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.8364868</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11216,170 +11065,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9285714285714286</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8571428571428571</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.75</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7142857142857143</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11389,120 +11164,172 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>MID</t>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bait</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bit</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.5</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bought</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.1666666666666667</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>had</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>head</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.9166666666666666</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>heed</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -11511,67 +11338,2722 @@
           <t>hid</t>
         </is>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0.6666666666666666</v>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>hod</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>hood</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.25</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>hud</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
           <t>who'd</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.3333333333333333</v>
+      <c r="B15" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13047,6 +15529,2190 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
